--- a/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>20</v>
       </c>
     </row>
@@ -469,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +579,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,14 +538,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -557,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,14 +617,6 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -615,6 +616,313 @@
       </c>
       <c r="B7" t="n">
         <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20.59468216907074</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119.8472191871679</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.04722522918502</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119.6171367169599</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21.65340423330815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>121.1955189977288</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.04640110619991</v>
+      </c>
+      <c r="D5" t="n">
+        <v>117.2008969033151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.101477799957031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>106.8092064064091</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.302696837458074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>104.0168236680871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.88718189342787</v>
+      </c>
+      <c r="D8" t="n">
+        <v>105.3206858698464</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.3125720230422</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94.16152313182651</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.88249719210769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80.71936301029223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-18.20584061410346</v>
+      </c>
+      <c r="D11" t="n">
+        <v>77.81480317615033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-23.82183298290637</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78.76451336879302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-21.67263018709578</v>
+      </c>
+      <c r="D13" t="n">
+        <v>77.23354611220732</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-21.04549557961656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.21592681182541</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-23.89673002242272</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73.56640990794578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-24.47010541383561</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71.8731044076126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-26.50209103896545</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70.99663124966916</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.89215791062187</v>
+      </c>
+      <c r="D18" t="n">
+        <v>65.64741478506608</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-27.98353336810669</v>
+      </c>
+      <c r="D19" t="n">
+        <v>70.38259315357809</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-30.92349005884728</v>
+      </c>
+      <c r="D20" t="n">
+        <v>66.77366243370926</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
+++ b/po_analysis_by_asin/B08BNRR5SJ_po_data.xlsx
@@ -629,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,16 +648,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -666,12 +656,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>20.59468216907074</v>
-      </c>
-      <c r="D2" t="n">
-        <v>119.8472191871679</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -680,12 +664,6 @@
       <c r="B3" t="n">
         <v>68</v>
       </c>
-      <c r="C3" t="n">
-        <v>22.04722522918502</v>
-      </c>
-      <c r="D3" t="n">
-        <v>119.6171367169599</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -694,12 +672,6 @@
       <c r="B4" t="n">
         <v>67</v>
       </c>
-      <c r="C4" t="n">
-        <v>21.65340423330815</v>
-      </c>
-      <c r="D4" t="n">
-        <v>121.1955189977288</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -708,12 +680,6 @@
       <c r="B5" t="n">
         <v>66</v>
       </c>
-      <c r="C5" t="n">
-        <v>16.04640110619991</v>
-      </c>
-      <c r="D5" t="n">
-        <v>117.2008969033151</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -722,12 +688,6 @@
       <c r="B6" t="n">
         <v>58</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.101477799957031</v>
-      </c>
-      <c r="D6" t="n">
-        <v>106.8092064064091</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -736,12 +696,6 @@
       <c r="B7" t="n">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
-        <v>6.302696837458074</v>
-      </c>
-      <c r="D7" t="n">
-        <v>104.0168236680871</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -750,12 +704,6 @@
       <c r="B8" t="n">
         <v>56</v>
       </c>
-      <c r="C8" t="n">
-        <v>10.88718189342787</v>
-      </c>
-      <c r="D8" t="n">
-        <v>105.3206858698464</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -764,12 +712,6 @@
       <c r="B9" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
-        <v>-4.3125720230422</v>
-      </c>
-      <c r="D9" t="n">
-        <v>94.16152313182651</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -778,12 +720,6 @@
       <c r="B10" t="n">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>-17.88249719210769</v>
-      </c>
-      <c r="D10" t="n">
-        <v>80.71936301029223</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -792,12 +728,6 @@
       <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>-18.20584061410346</v>
-      </c>
-      <c r="D11" t="n">
-        <v>77.81480317615033</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -806,12 +736,6 @@
       <c r="B12" t="n">
         <v>29</v>
       </c>
-      <c r="C12" t="n">
-        <v>-23.82183298290637</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78.76451336879302</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -820,12 +744,6 @@
       <c r="B13" t="n">
         <v>28</v>
       </c>
-      <c r="C13" t="n">
-        <v>-21.67263018709578</v>
-      </c>
-      <c r="D13" t="n">
-        <v>77.23354611220732</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -834,12 +752,6 @@
       <c r="B14" t="n">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
-        <v>-21.04549557961656</v>
-      </c>
-      <c r="D14" t="n">
-        <v>76.21592681182541</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -848,12 +760,6 @@
       <c r="B15" t="n">
         <v>25</v>
       </c>
-      <c r="C15" t="n">
-        <v>-23.89673002242272</v>
-      </c>
-      <c r="D15" t="n">
-        <v>73.56640990794578</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -862,12 +768,6 @@
       <c r="B16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
-        <v>-24.47010541383561</v>
-      </c>
-      <c r="D16" t="n">
-        <v>71.8731044076126</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -876,12 +776,6 @@
       <c r="B17" t="n">
         <v>23</v>
       </c>
-      <c r="C17" t="n">
-        <v>-26.50209103896545</v>
-      </c>
-      <c r="D17" t="n">
-        <v>70.99663124966916</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -890,12 +784,6 @@
       <c r="B18" t="n">
         <v>21</v>
       </c>
-      <c r="C18" t="n">
-        <v>-24.89215791062187</v>
-      </c>
-      <c r="D18" t="n">
-        <v>65.64741478506608</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -904,12 +792,6 @@
       <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C19" t="n">
-        <v>-27.98353336810669</v>
-      </c>
-      <c r="D19" t="n">
-        <v>70.38259315357809</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -917,12 +799,6 @@
       </c>
       <c r="B20" t="n">
         <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-30.92349005884728</v>
-      </c>
-      <c r="D20" t="n">
-        <v>66.77366243370926</v>
       </c>
     </row>
   </sheetData>
